--- a/Data/ExpendableItemDefine.xlsx
+++ b/Data/ExpendableItemDefine.xlsx
@@ -27,18 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>iconResource</t>
   </si>
   <si>
     <t>effect.effectType</t>
@@ -47,31 +41,19 @@
     <t>effect.invokeType</t>
   </si>
   <si>
+    <t>effect.invokeNum</t>
+  </si>
+  <si>
     <t>effect.propertyType</t>
+  </si>
+  <si>
+    <t>effect.value</t>
   </si>
   <si>
     <t>effect.methodName</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>ExtraEntry1</t>
-  </si>
-  <si>
-    <t>ExtraEntry2</t>
-  </si>
-  <si>
-    <t>ExtraEntry3</t>
-  </si>
-  <si>
     <t>lucky_potion</t>
-  </si>
-  <si>
-    <t>lucky_potion_icon</t>
-  </si>
-  <si>
-    <t>lucky_potion吧啦吧啦吧啦吧啦吧啦吧啦</t>
   </si>
 </sst>
 </file>
@@ -1222,43 +1204,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.70192307692308" customWidth="1"/>
-    <col min="2" max="2" width="5.39423076923077" customWidth="1"/>
-    <col min="3" max="3" width="14.6730769230769" customWidth="1"/>
-    <col min="4" max="4" width="19.5961538461538" customWidth="1"/>
-    <col min="5" max="7" width="20.0961538461538" customWidth="1"/>
-    <col min="8" max="8" width="20.5865384615385" customWidth="1"/>
-    <col min="9" max="9" width="80.1153846153846" customWidth="1"/>
-    <col min="10" max="10" width="12.0769230769231" customWidth="1"/>
-    <col min="11" max="11" width="12.5673076923077" customWidth="1"/>
-    <col min="12" max="12" width="12.3173076923077" customWidth="1"/>
+    <col min="2" max="6" width="20.0961538461538" customWidth="1"/>
+    <col min="7" max="8" width="20.5865384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1267,43 +1242,28 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ExpendableItemDefine.xlsx
+++ b/Data/ExpendableItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1260,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
